--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/AngVel/f20_18RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/AngVel/f20_18RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\G\AngVel\f20_18RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2358396D-3E35-4F56-BDAA-42F8773D235B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89F9730-0764-4A1B-ADAC-DB6D5A717EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ABBA0FC2-41BB-41BD-A533-66A184DC0695}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18F65A55-7AD1-484B-B223-82CB6B1F00F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6662E8CF-46FC-49F7-A060-68FAB11BF169}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A13DD47-6EBE-4CBD-B9D6-F6E5127F0C4B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/AngVel/f20_18RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/AngVel/f20_18RPM/RMSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\G\AngVel\f20_18RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89F9730-0764-4A1B-ADAC-DB6D5A717EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5209F39E-8ADC-4F1D-9DB7-538460C1B41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18F65A55-7AD1-484B-B223-82CB6B1F00F1}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{606AC255-733B-42FF-883A-A5CA877F5EE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A13DD47-6EBE-4CBD-B9D6-F6E5127F0C4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14516260-E309-4AC4-86AE-0EB82075BEDF}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/AngVel/f20_18RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/AngVel/f20_18RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\G\AngVel\f20_18RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5209F39E-8ADC-4F1D-9DB7-538460C1B41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A409D2E-DBC5-4BFE-9868-1686E28D9D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{606AC255-733B-42FF-883A-A5CA877F5EE6}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{509EC699-410C-4D74-8DB0-996EF58AE21F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14516260-E309-4AC4-86AE-0EB82075BEDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355A712A-112B-4DC4-80ED-F2346199B30D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
